--- a/Projekt/Mitarbeiterzeiten/MA_ZD.xlsx
+++ b/Projekt/Mitarbeiterzeiten/MA_ZD.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBXGitHub\HtmXRechnung\Projekt\Mitarbeiterzeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7C9169-7A49-4732-AEA5-338C664389BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A082EB8-540C-457F-BB0A-791FA437CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="22860" tabRatio="373" firstSheet="1" activeTab="1" xr2:uid="{5A353484-0E68-4912-BD2B-362C94CA2B03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="22860" xr2:uid="{417ADD1E-5266-4F8C-88EF-D876B13B21C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Makros" sheetId="29" state="veryHidden" r:id="rId1"/>
-    <sheet name="MA ZD" sheetId="28" r:id="rId2"/>
+    <sheet name="MA ZD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,313 +42,313 @@
     <t>Tätigkeit</t>
   </si>
   <si>
+    <t>nicht abr.bar (Std.)</t>
+  </si>
+  <si>
+    <t>Mögliche Unterdeckung in €</t>
+  </si>
+  <si>
     <t>Stunden</t>
   </si>
   <si>
+    <t>Zeilen-ID</t>
+  </si>
+  <si>
+    <t>Elisabeth Fritz</t>
+  </si>
+  <si>
+    <t>Fibu 11,2024</t>
+  </si>
+  <si>
+    <t>B5FC19AC-9B33-448A-80BC-EA7A36BDA8DF</t>
+  </si>
+  <si>
+    <t>S. Duysak</t>
+  </si>
+  <si>
+    <t>64A04E9D-2CF3-4BF5-86BE-73F2220EB1DA</t>
+  </si>
+  <si>
+    <t>EC862D92-45D7-42EF-A5DC-21FB62A0C61D</t>
+  </si>
+  <si>
+    <t>10220/10221</t>
+  </si>
+  <si>
+    <t>76D35838-DDCB-4A5B-ADA2-858546A1FFD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katrin Hoffmann </t>
+  </si>
+  <si>
+    <t>Fibu 10,2024</t>
+  </si>
+  <si>
+    <t>EDBB38BC-2BC8-4936-9E0D-D7FA160D66A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breu Deutschland </t>
+  </si>
+  <si>
+    <t>Debitoren 12,2024</t>
+  </si>
+  <si>
+    <t>04661EE9-9B6F-4799-AAE2-D1DEA94C77D8</t>
+  </si>
+  <si>
+    <t>0B4708F3-1C69-4D38-8719-3BFA792A37B4</t>
+  </si>
+  <si>
+    <t>Base9GbR</t>
+  </si>
+  <si>
+    <t>535B11FC-2FDF-4EA0-8321-F483FB51611F</t>
+  </si>
+  <si>
+    <t>Dirk Weber</t>
+  </si>
+  <si>
+    <t>51DA4E72-B722-4224-A05D-FD589D7D37B4</t>
+  </si>
+  <si>
+    <t>5B0546A3-5814-4093-AEE8-1C4DB16FF5D2</t>
+  </si>
+  <si>
+    <t>261E94C8-874A-4690-9996-DBA6DCB6362C</t>
+  </si>
+  <si>
+    <t>OPOs</t>
+  </si>
+  <si>
+    <t>DBBF635E-D3F3-4E0B-B95C-EF92D717D5C0</t>
+  </si>
+  <si>
+    <t>Prof.Dr. Fritz</t>
+  </si>
+  <si>
+    <t>EC3ABA8F-2A82-48B7-96AD-6CBBBCE414EB</t>
+  </si>
+  <si>
+    <t>88C7006B-5378-432B-AE75-5CBEFA2B029A</t>
+  </si>
+  <si>
+    <t>B66748F0-9FA7-45DF-AC8E-DB18D3B702A7</t>
+  </si>
+  <si>
+    <t>Dr. Gabriele Reiss</t>
+  </si>
+  <si>
+    <t>2CF691EF-C508-4341-B9D5-031B078C8C2D</t>
+  </si>
+  <si>
+    <t>Nachb. Fibu 2023</t>
+  </si>
+  <si>
+    <t>84B975FB-9061-4A5F-99E9-7D34012241C1</t>
+  </si>
+  <si>
+    <t>Günter u. Lieselotte Dölp</t>
+  </si>
+  <si>
+    <t>aB 2023</t>
+  </si>
+  <si>
+    <t>5C5168A9-AA7F-4AD4-B9E8-B7CE44AB4276</t>
+  </si>
+  <si>
+    <t>2FEC7938-B2F5-4771-9E3C-DF1891C37643</t>
+  </si>
+  <si>
+    <t>ESt 2023</t>
+  </si>
+  <si>
+    <t>29888A83-6001-48F1-97BE-4658F4FA1549</t>
+  </si>
+  <si>
+    <t>Fibu 12,2024</t>
+  </si>
+  <si>
+    <t>D488F8D7-385C-400F-8CBD-D23194912F42</t>
+  </si>
+  <si>
+    <t>B1691AFF-9E85-4392-B587-10E9609CD329</t>
+  </si>
+  <si>
+    <t>DB82640C-EBE5-4DE6-8ADC-389E04DFF274</t>
+  </si>
+  <si>
+    <t>8CB4ECDD-5783-46E1-A466-29F0FF81B28C</t>
+  </si>
+  <si>
+    <t>0F266B25-C018-47D2-B9E8-D9504AECA06A</t>
+  </si>
+  <si>
+    <t>9A9AA78C-86BD-4E17-A540-DDAF325BDAC2</t>
+  </si>
+  <si>
     <t>Klaus Walter</t>
   </si>
   <si>
-    <t>Dirk Weber</t>
-  </si>
-  <si>
-    <t>Elisabeth Fritz</t>
-  </si>
-  <si>
-    <t>Fibu 11,2024</t>
-  </si>
-  <si>
-    <t>S. Duysak</t>
-  </si>
-  <si>
-    <t>10220/10221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katrin Hoffmann </t>
-  </si>
-  <si>
-    <t>Fibu 10,2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breu Deutschland </t>
-  </si>
-  <si>
-    <t>Debitoren 12,2024</t>
-  </si>
-  <si>
-    <t>Base9GbR</t>
-  </si>
-  <si>
-    <t>OPOs</t>
-  </si>
-  <si>
-    <t>Prof.Dr. Fritz</t>
-  </si>
-  <si>
-    <t>Dr. Gabriele Reiss</t>
-  </si>
-  <si>
-    <t>Nachb. Fibu 2023</t>
-  </si>
-  <si>
-    <t>Günter u. Lieselotte Dölp</t>
-  </si>
-  <si>
-    <t>aB 2023</t>
-  </si>
-  <si>
-    <t>ESt 2023</t>
-  </si>
-  <si>
-    <t>Fibu 12,2024</t>
-  </si>
-  <si>
     <t>Fibu IV/2024</t>
   </si>
   <si>
+    <t>8D89DBC8-09B0-4EDF-A0C1-89CAD892612F</t>
+  </si>
+  <si>
+    <t>D9F41823-CB0D-4747-8CFF-9B1B5026E65E</t>
+  </si>
+  <si>
+    <t>DC94E9BF-F648-44D1-A186-BC6D4050E1A7</t>
+  </si>
+  <si>
+    <t>326B4596-EEDA-4D8B-B91C-AB0C421F395F</t>
+  </si>
+  <si>
+    <t>3B9627AC-CBFC-4F49-A360-E86EC58E104B</t>
+  </si>
+  <si>
+    <t>72FDE983-65C0-41E2-B215-6210EB00774E</t>
+  </si>
+  <si>
+    <t>284027AC-E5D9-4B37-93D9-2BFC799B7618</t>
+  </si>
+  <si>
     <t>Breu Deutschland GmbH</t>
   </si>
   <si>
+    <t>D203B849-C043-4E1B-A063-6C6D1406BE28</t>
+  </si>
+  <si>
+    <t>34D119EA-D387-4279-AD76-EB4087EC39B3</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPOS </t>
   </si>
   <si>
+    <t>9692E776-1303-4ED5-BAAA-1B59AB609936</t>
+  </si>
+  <si>
+    <t>7F2E4BB4-8E4F-46EB-9927-3CCCBFC7E548</t>
+  </si>
+  <si>
+    <t>996C2410-7C26-4B96-8F67-32B3030E6C53</t>
+  </si>
+  <si>
+    <t>E32C6633-C4D3-493A-9D05-0DA705BD5DFA</t>
+  </si>
+  <si>
     <t>Hair &amp; Beauty</t>
   </si>
   <si>
+    <t>E17076B5-2129-4471-BEB2-3EB5B7E38997</t>
+  </si>
+  <si>
+    <t>A9AEDE0A-E712-433F-A1AB-E3A56FE9FD3A</t>
+  </si>
+  <si>
+    <t>8D2CE246-8648-4820-B18A-4FD42DCC1F43</t>
+  </si>
+  <si>
+    <t>99463F03-4BE6-410B-97C6-8C56C531146A</t>
+  </si>
+  <si>
     <t>Janine Bernstein</t>
   </si>
   <si>
+    <t>115D7EDB-FD63-424E-A92B-281CAE0CFE27</t>
+  </si>
+  <si>
+    <t>108B2E4F-E1CA-422F-AC7D-053E97BEE651</t>
+  </si>
+  <si>
+    <t>ED7EE554-D56A-4CE9-8EAA-C3DD6E2DA929</t>
+  </si>
+  <si>
+    <t>20B78BB1-8D02-4F45-A16B-712FBF17323C</t>
+  </si>
+  <si>
     <t>Fibu 01,2025</t>
   </si>
   <si>
+    <t>4734E9D9-C27D-476F-AF54-AC40C5AD2298</t>
+  </si>
+  <si>
+    <t>A9EDDE21-9205-4228-8914-FDEC0E575BEE</t>
+  </si>
+  <si>
+    <t>D6504D3B-1996-4C22-8B42-003A4C234568</t>
+  </si>
+  <si>
+    <t>6C1FFBBE-FD76-447B-8DE7-BDD9756E3B3C</t>
+  </si>
+  <si>
+    <t>BD9B2C5E-B41F-4279-A059-A14349631B51</t>
+  </si>
+  <si>
+    <t>C7013981-B8A8-4F2B-BFCA-E3DF8E0E9C91</t>
+  </si>
+  <si>
+    <t>2C5B0C56-E129-402B-9B34-54D76903FA18</t>
+  </si>
+  <si>
     <t>Fibu 01,2025+ neuer Ordner</t>
   </si>
   <si>
+    <t>973F9F6C-5E2E-42FB-A2ED-769E83CC82D5</t>
+  </si>
+  <si>
+    <t>9543B069-E9DE-47B9-A197-A43D21740165</t>
+  </si>
+  <si>
+    <t>3A564743-277F-440D-9F51-DD10094DA058</t>
+  </si>
+  <si>
+    <t>03EA98B3-11B9-4E18-94DA-392FA1D2ECC5</t>
+  </si>
+  <si>
+    <t>F0E014BF-9BCD-49D3-9283-819D71A72042</t>
+  </si>
+  <si>
+    <t>0D2E2711-71FE-4CB7-BF34-0B54CA9F5A11</t>
+  </si>
+  <si>
+    <t>9BD00494-6B3F-4B6F-9F7B-DFDF5DBA19C5</t>
+  </si>
+  <si>
     <t>Fibu 01,2025 + neuer Ordner</t>
   </si>
   <si>
-    <t>Mögliche Unterdeckung in €</t>
-  </si>
-  <si>
-    <t>nicht abr.bar (Std.)</t>
-  </si>
-  <si>
-    <t>Zeilen-ID</t>
-  </si>
-  <si>
-    <t>B5FC19AC-9B33-448A-80BC-EA7A36BDA8DF</t>
-  </si>
-  <si>
-    <t>64A04E9D-2CF3-4BF5-86BE-73F2220EB1DA</t>
-  </si>
-  <si>
-    <t>EC862D92-45D7-42EF-A5DC-21FB62A0C61D</t>
-  </si>
-  <si>
-    <t>76D35838-DDCB-4A5B-ADA2-858546A1FFD7</t>
-  </si>
-  <si>
-    <t>EDBB38BC-2BC8-4936-9E0D-D7FA160D66A1</t>
-  </si>
-  <si>
-    <t>04661EE9-9B6F-4799-AAE2-D1DEA94C77D8</t>
-  </si>
-  <si>
-    <t>0B4708F3-1C69-4D38-8719-3BFA792A37B4</t>
-  </si>
-  <si>
-    <t>535B11FC-2FDF-4EA0-8321-F483FB51611F</t>
-  </si>
-  <si>
-    <t>51DA4E72-B722-4224-A05D-FD589D7D37B4</t>
-  </si>
-  <si>
-    <t>5B0546A3-5814-4093-AEE8-1C4DB16FF5D2</t>
-  </si>
-  <si>
-    <t>261E94C8-874A-4690-9996-DBA6DCB6362C</t>
-  </si>
-  <si>
-    <t>DBBF635E-D3F3-4E0B-B95C-EF92D717D5C0</t>
-  </si>
-  <si>
-    <t>EC3ABA8F-2A82-48B7-96AD-6CBBBCE414EB</t>
-  </si>
-  <si>
-    <t>88C7006B-5378-432B-AE75-5CBEFA2B029A</t>
-  </si>
-  <si>
-    <t>B66748F0-9FA7-45DF-AC8E-DB18D3B702A7</t>
-  </si>
-  <si>
-    <t>2CF691EF-C508-4341-B9D5-031B078C8C2D</t>
-  </si>
-  <si>
-    <t>84B975FB-9061-4A5F-99E9-7D34012241C1</t>
-  </si>
-  <si>
-    <t>5C5168A9-AA7F-4AD4-B9E8-B7CE44AB4276</t>
-  </si>
-  <si>
-    <t>2FEC7938-B2F5-4771-9E3C-DF1891C37643</t>
-  </si>
-  <si>
-    <t>29888A83-6001-48F1-97BE-4658F4FA1549</t>
-  </si>
-  <si>
-    <t>D488F8D7-385C-400F-8CBD-D23194912F42</t>
-  </si>
-  <si>
-    <t>B1691AFF-9E85-4392-B587-10E9609CD329</t>
-  </si>
-  <si>
-    <t>DB82640C-EBE5-4DE6-8ADC-389E04DFF274</t>
-  </si>
-  <si>
-    <t>8CB4ECDD-5783-46E1-A466-29F0FF81B28C</t>
-  </si>
-  <si>
-    <t>0F266B25-C018-47D2-B9E8-D9504AECA06A</t>
-  </si>
-  <si>
-    <t>9A9AA78C-86BD-4E17-A540-DDAF325BDAC2</t>
-  </si>
-  <si>
-    <t>8D89DBC8-09B0-4EDF-A0C1-89CAD892612F</t>
-  </si>
-  <si>
-    <t>D9F41823-CB0D-4747-8CFF-9B1B5026E65E</t>
-  </si>
-  <si>
-    <t>DC94E9BF-F648-44D1-A186-BC6D4050E1A7</t>
-  </si>
-  <si>
-    <t>326B4596-EEDA-4D8B-B91C-AB0C421F395F</t>
-  </si>
-  <si>
-    <t>3B9627AC-CBFC-4F49-A360-E86EC58E104B</t>
-  </si>
-  <si>
-    <t>72FDE983-65C0-41E2-B215-6210EB00774E</t>
-  </si>
-  <si>
-    <t>284027AC-E5D9-4B37-93D9-2BFC799B7618</t>
-  </si>
-  <si>
-    <t>D203B849-C043-4E1B-A063-6C6D1406BE28</t>
-  </si>
-  <si>
-    <t>34D119EA-D387-4279-AD76-EB4087EC39B3</t>
-  </si>
-  <si>
-    <t>9692E776-1303-4ED5-BAAA-1B59AB609936</t>
-  </si>
-  <si>
-    <t>7F2E4BB4-8E4F-46EB-9927-3CCCBFC7E548</t>
-  </si>
-  <si>
-    <t>996C2410-7C26-4B96-8F67-32B3030E6C53</t>
-  </si>
-  <si>
-    <t>E32C6633-C4D3-493A-9D05-0DA705BD5DFA</t>
-  </si>
-  <si>
-    <t>E17076B5-2129-4471-BEB2-3EB5B7E38997</t>
-  </si>
-  <si>
-    <t>A9AEDE0A-E712-433F-A1AB-E3A56FE9FD3A</t>
-  </si>
-  <si>
-    <t>8D2CE246-8648-4820-B18A-4FD42DCC1F43</t>
-  </si>
-  <si>
-    <t>99463F03-4BE6-410B-97C6-8C56C531146A</t>
-  </si>
-  <si>
-    <t>115D7EDB-FD63-424E-A92B-281CAE0CFE27</t>
-  </si>
-  <si>
-    <t>108B2E4F-E1CA-422F-AC7D-053E97BEE651</t>
-  </si>
-  <si>
-    <t>ED7EE554-D56A-4CE9-8EAA-C3DD6E2DA929</t>
-  </si>
-  <si>
-    <t>20B78BB1-8D02-4F45-A16B-712FBF17323C</t>
-  </si>
-  <si>
-    <t>4734E9D9-C27D-476F-AF54-AC40C5AD2298</t>
-  </si>
-  <si>
-    <t>A9EDDE21-9205-4228-8914-FDEC0E575BEE</t>
-  </si>
-  <si>
-    <t>D6504D3B-1996-4C22-8B42-003A4C234568</t>
-  </si>
-  <si>
-    <t>6C1FFBBE-FD76-447B-8DE7-BDD9756E3B3C</t>
-  </si>
-  <si>
-    <t>BD9B2C5E-B41F-4279-A059-A14349631B51</t>
-  </si>
-  <si>
-    <t>C7013981-B8A8-4F2B-BFCA-E3DF8E0E9C91</t>
-  </si>
-  <si>
-    <t>2C5B0C56-E129-402B-9B34-54D76903FA18</t>
-  </si>
-  <si>
-    <t>973F9F6C-5E2E-42FB-A2ED-769E83CC82D5</t>
-  </si>
-  <si>
-    <t>9543B069-E9DE-47B9-A197-A43D21740165</t>
-  </si>
-  <si>
-    <t>3A564743-277F-440D-9F51-DD10094DA058</t>
-  </si>
-  <si>
-    <t>03EA98B3-11B9-4E18-94DA-392FA1D2ECC5</t>
-  </si>
-  <si>
-    <t>F0E014BF-9BCD-49D3-9283-819D71A72042</t>
-  </si>
-  <si>
-    <t>0D2E2711-71FE-4CB7-BF34-0B54CA9F5A11</t>
-  </si>
-  <si>
-    <t>9BD00494-6B3F-4B6F-9F7B-DFDF5DBA19C5</t>
-  </si>
-  <si>
     <t>E9AA4111-7CF5-4168-BDEB-ACDDE782C30C</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>Bender</t>
   </si>
   <si>
     <t>Laber fasel</t>
   </si>
   <si>
+    <t>C3A61789-050C-48C7-8D18-97841FAC8470</t>
+  </si>
+  <si>
     <t>Wolfgang</t>
   </si>
   <si>
     <t>Test Wolle</t>
   </si>
   <si>
-    <t>C3A61789-050C-48C7-8D18-97841FAC8470</t>
-  </si>
-  <si>
     <t>4085D7BC-22F3-4F66-84DA-557C816963A7</t>
   </si>
   <si>
+    <t>ANewTestCustomer</t>
+  </si>
+  <si>
     <t>Bla</t>
   </si>
   <si>
-    <t>ANewTestCustomer</t>
-  </si>
-  <si>
     <t>B887354A-BF91-494F-969D-A1D67EA3ECB2</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -361,6 +360,13 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -382,11 +388,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -435,50 +436,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Ergebnis 1" xfId="1" xr:uid="{169007C4-7436-4EB5-9583-724C779FE769}"/>
-    <cellStyle name="Euro" xfId="2" xr:uid="{98EF3388-39FB-4C05-8CDE-0208B8C3A46B}"/>
+  <cellStyles count="6">
+    <cellStyle name="Ergebnis 1" xfId="2" xr:uid="{501D8409-EB31-4A03-96AF-D06A986ABA24}"/>
+    <cellStyle name="Euro" xfId="3" xr:uid="{238E76FB-39BC-47F5-A3BF-254CBB5C4E57}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="3" xr:uid="{FE4D7D71-2DA6-4FD0-A882-5FE48E2572AA}"/>
-    <cellStyle name="Überschrift 5" xfId="4" xr:uid="{3FF61259-93B7-47A4-BD28-910E8A2A4F69}"/>
+    <cellStyle name="Standard 2" xfId="4" xr:uid="{CDCF577E-1C1D-4C83-8C30-10C2217C263D}"/>
+    <cellStyle name="Standard 3" xfId="1" xr:uid="{7AAA5514-4842-40EC-8109-27B17366072F}"/>
+    <cellStyle name="Überschrift 5" xfId="5" xr:uid="{E3C6EEC3-8774-4443-83E8-08EAAE49E70A}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,9 +492,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -501,44 +502,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -565,14 +566,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -599,9 +618,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,297 +647,197 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F252DCB4-EA17-43BC-9D22-3E5D760FACB1}">
-  <sheetPr codeName="AlleMakros"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AA91-FB17-4DD3-9E49-4824BC24E350}">
-  <sheetPr codeName="Tabelle3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39950001-D71A-4F75-BF71-DA589E8754C8}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45659</v>
       </c>
@@ -909,19 +846,21 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="9">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45659</v>
       </c>
@@ -930,19 +869,21 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="9">
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45659</v>
       </c>
@@ -951,40 +892,44 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="9">
         <v>3</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45660</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="9">
         <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45660</v>
       </c>
@@ -993,19 +938,21 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9">
         <v>4</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45660</v>
       </c>
@@ -1014,19 +961,21 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45663</v>
       </c>
@@ -1035,19 +984,21 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45663</v>
       </c>
@@ -1056,19 +1007,21 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="9">
         <v>3</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45663</v>
       </c>
@@ -1077,19 +1030,21 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9">
         <v>3</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45664</v>
       </c>
@@ -1098,19 +1053,21 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="9">
         <v>1</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45664</v>
       </c>
@@ -1119,40 +1076,44 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45664</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="9">
         <v>2</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45664</v>
       </c>
@@ -1161,19 +1122,21 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="9">
         <v>1</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45664</v>
       </c>
@@ -1182,19 +1145,21 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="9">
         <v>1</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45664</v>
       </c>
@@ -1203,19 +1168,21 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45665</v>
       </c>
@@ -1224,19 +1191,21 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="9">
         <v>7</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45666</v>
       </c>
@@ -1245,19 +1214,21 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="9">
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45667</v>
       </c>
@@ -1266,19 +1237,21 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9">
         <v>7</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45670</v>
       </c>
@@ -1287,19 +1260,21 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="9">
         <v>7</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45671</v>
       </c>
@@ -1308,19 +1283,21 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="9">
         <v>5</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45671</v>
       </c>
@@ -1329,19 +1306,21 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="9">
         <v>2</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45673</v>
       </c>
@@ -1350,19 +1329,21 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="9">
         <v>1.5</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45674</v>
       </c>
@@ -1371,19 +1352,21 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="9">
         <v>1.5</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45674</v>
       </c>
@@ -1392,139 +1375,159 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="9">
         <v>5.5</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>45677</v>
       </c>
       <c r="B26" s="9">
         <v>60116</v>
       </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9">
         <v>7</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45679</v>
       </c>
       <c r="B27" s="9">
         <v>60116</v>
       </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="9">
         <v>6</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45679</v>
       </c>
       <c r="B28" s="9">
         <v>10117</v>
       </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9">
         <v>1</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45680</v>
       </c>
       <c r="B29" s="9">
         <v>10117</v>
       </c>
+      <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="9">
         <v>1.5</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>45681</v>
       </c>
       <c r="B30" s="9">
         <v>10117</v>
       </c>
+      <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="9">
         <v>5</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45681</v>
       </c>
       <c r="B31" s="9">
         <v>10220</v>
       </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>45681</v>
       </c>
@@ -1533,40 +1536,44 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9">
         <v>1</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45684</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="9">
         <v>3.5</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45685</v>
       </c>
@@ -1575,19 +1582,21 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="9">
         <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45685</v>
       </c>
@@ -1596,19 +1605,21 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="9">
         <v>4</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>45687</v>
       </c>
@@ -1617,19 +1628,21 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="9">
         <v>7</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45688</v>
       </c>
@@ -1638,59 +1651,67 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="9">
         <v>3</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>45688</v>
       </c>
       <c r="B38" s="9">
         <v>60340</v>
       </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="9">
         <v>4</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45692</v>
       </c>
       <c r="B39" s="9">
         <v>60245</v>
       </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9">
         <v>7</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>45693</v>
       </c>
@@ -1699,19 +1720,21 @@
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="9">
         <v>5</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45693</v>
       </c>
@@ -1720,19 +1743,21 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9">
         <v>2</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45694</v>
       </c>
@@ -1741,19 +1766,21 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="9">
         <v>3</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45695</v>
       </c>
@@ -1762,19 +1789,21 @@
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="9">
         <v>8</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>45699</v>
       </c>
@@ -1783,179 +1812,205 @@
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9">
         <v>5.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45699</v>
       </c>
       <c r="B45" s="9">
         <v>60246</v>
       </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="9">
         <v>1.5</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45700</v>
       </c>
       <c r="B46" s="9">
         <v>60246</v>
       </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="9">
         <v>7</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45701</v>
       </c>
       <c r="B47" s="9">
         <v>60246</v>
       </c>
+      <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="9">
         <v>3</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>45702</v>
       </c>
       <c r="B48" s="9">
         <v>60246</v>
       </c>
+      <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="9">
         <v>5</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45702</v>
       </c>
       <c r="B49" s="9">
         <v>10275</v>
       </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="9">
         <v>2</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>45706</v>
       </c>
       <c r="B50" s="9">
         <v>10275</v>
       </c>
+      <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="9">
         <v>7</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>45707</v>
       </c>
       <c r="B51" s="9">
         <v>10275</v>
       </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="9">
         <v>5</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>45707</v>
       </c>
       <c r="B52" s="9">
         <v>10220</v>
       </c>
+      <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="9">
         <v>2</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45708</v>
       </c>
@@ -1964,159 +2019,182 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9">
         <v>2</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>45708</v>
       </c>
       <c r="B54" s="9">
         <v>10221</v>
       </c>
+      <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="9">
         <v>1</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>45709</v>
       </c>
       <c r="B55" s="9">
         <v>10221</v>
       </c>
+      <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9">
         <v>5</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>45709</v>
       </c>
       <c r="B56" s="9">
         <v>60227</v>
       </c>
+      <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="9">
         <v>1.5</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>45713</v>
       </c>
       <c r="B57" s="9">
         <v>60227</v>
       </c>
+      <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="9">
         <v>3</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>45713</v>
       </c>
       <c r="B58" s="9">
         <v>60228</v>
       </c>
+      <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9">
         <v>2.5</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>45713</v>
       </c>
       <c r="B59" s="9">
         <v>60340</v>
       </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9">
         <v>1.5</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>45714</v>
       </c>
       <c r="B60" s="9">
         <v>60340</v>
       </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="9">
         <v>2.5</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>45714</v>
       </c>
@@ -2125,19 +2203,21 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="9">
         <v>4.5</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>45715</v>
       </c>
@@ -2146,19 +2226,21 @@
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9">
         <v>3</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45716</v>
       </c>
@@ -2167,11 +2249,13 @@
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="9">
         <v>6</v>
       </c>
@@ -2179,7 +2263,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>45990</v>
       </c>
@@ -2187,59 +2271,67 @@
         <v>60269</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9">
         <v>2</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>45990</v>
       </c>
       <c r="B65" s="9">
         <v>10100</v>
       </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="9">
         <v>3</v>
       </c>
-      <c r="I65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>46023</v>
       </c>
       <c r="B66" s="9">
         <v>99887</v>
       </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="9">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
-        <v>106</v>
+      <c r="I66" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/Mitarbeiterzeiten/MA_ZD.xlsx
+++ b/Projekt/Mitarbeiterzeiten/MA_ZD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBXGitHub\HtmXRechnung\Projekt\Mitarbeiterzeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A082EB8-540C-457F-BB0A-791FA437CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DECA1-9DBB-4184-B68D-809E424D7798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="22860" xr2:uid="{417ADD1E-5266-4F8C-88EF-D876B13B21C1}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="25575" windowHeight="18255" xr2:uid="{417ADD1E-5266-4F8C-88EF-D876B13B21C1}"/>
   </bookViews>
   <sheets>
     <sheet name="MA ZD" sheetId="1" r:id="rId1"/>
